--- a/Completed Projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 1 - Amreli steel (Verified).xlsx
+++ b/Completed Projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 1 - Amreli steel (Verified).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C469B6-D32C-415C-AB7A-70654B0B2E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E080B4-F63F-429F-AF1D-AB4856415963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2076,6 +2076,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2084,12 +2090,6 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2432,7 +2432,7 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2561,10 +2561,7 @@
         <f>Fire!K52</f>
         <v>1333996.5</v>
       </c>
-      <c r="F12" s="168">
-        <f>E12+E10</f>
-        <v>7634180.5</v>
-      </c>
+      <c r="F12" s="168"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
@@ -2588,10 +2585,7 @@
         <f>[1]Sheet1!$C$23</f>
         <v>1335898.3032</v>
       </c>
-      <c r="F14" s="167">
-        <f>E14</f>
-        <v>1335898.3032</v>
-      </c>
+      <c r="F14" s="167"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="119"/>
@@ -2611,10 +2605,7 @@
         <f>SUM(E10:E14)</f>
         <v>8970078.803199999</v>
       </c>
-      <c r="F16" s="78">
-        <f>SUM(F10:F14)</f>
-        <v>8970078.803199999</v>
-      </c>
+      <c r="F16" s="78"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E17" s="62"/>
@@ -6206,16 +6197,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="189" t="s">
+      <c r="C5" s="186" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="189" t="s">
+      <c r="D5" s="186" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="76" t="s">
@@ -6236,15 +6227,15 @@
       <c r="J5" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="189" t="s">
+      <c r="K5" s="186" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="190"/>
-      <c r="B6" s="190"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
       <c r="E6" s="20" t="s">
         <v>127</v>
       </c>
@@ -6255,7 +6246,7 @@
       <c r="H6" s="181"/>
       <c r="I6" s="181"/>
       <c r="J6" s="181"/>
-      <c r="K6" s="190"/>
+      <c r="K6" s="187"/>
     </row>
     <row r="7" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -6550,27 +6541,27 @@
       <c r="D16" s="193">
         <v>46</v>
       </c>
-      <c r="E16" s="186">
+      <c r="E16" s="188">
         <v>3700</v>
       </c>
-      <c r="F16" s="186">
+      <c r="F16" s="188">
         <v>850</v>
       </c>
-      <c r="G16" s="186">
+      <c r="G16" s="188">
         <v>22</v>
       </c>
-      <c r="H16" s="186">
+      <c r="H16" s="188">
         <v>134400</v>
       </c>
-      <c r="I16" s="186">
+      <c r="I16" s="188">
         <f>G16</f>
         <v>22</v>
       </c>
-      <c r="J16" s="187">
+      <c r="J16" s="189">
         <f>I16*F16</f>
         <v>18700</v>
       </c>
-      <c r="K16" s="187">
+      <c r="K16" s="189">
         <f>J16+H16</f>
         <v>153100</v>
       </c>
@@ -6584,16 +6575,16 @@
       </c>
       <c r="C17" s="192"/>
       <c r="D17" s="193"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186">
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="188"/>
-      <c r="K17" s="188"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="190"/>
       <c r="L17" s="1" t="s">
         <v>212</v>
       </c>
@@ -7552,6 +7543,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="K16:K17"/>
@@ -7568,12 +7565,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
